--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2515"/>
+  <dimension ref="A1:C2518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28049,6 +28049,39 @@
         <v>19421.19765136468</v>
       </c>
     </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="2">
+        <v>44781</v>
+      </c>
+      <c r="C2516">
+        <v>19901.26195657773</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="2">
+        <v>44782</v>
+      </c>
+      <c r="C2517">
+        <v>19895.96092937668</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="1">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="2">
+        <v>44783</v>
+      </c>
+      <c r="C2518">
+        <v>20338.84687989893</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28082,6 +28082,17 @@
         <v>20338.84687989893</v>
       </c>
     </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="1">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="2">
+        <v>44784</v>
+      </c>
+      <c r="C2519">
+        <v>20372.31553602083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2519"/>
+  <dimension ref="A1:C2520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28093,6 +28093,17 @@
         <v>20372.31553602083</v>
       </c>
     </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="1">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="2">
+        <v>44785</v>
+      </c>
+      <c r="C2520">
+        <v>20311.42838131647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2520"/>
+  <dimension ref="A1:C2521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28104,6 +28104,17 @@
         <v>20311.42838131647</v>
       </c>
     </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="2">
+        <v>44788</v>
+      </c>
+      <c r="C2521">
+        <v>20087.04063090476</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2521"/>
+  <dimension ref="A1:C2522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28115,6 +28115,17 @@
         <v>20087.04063090476</v>
       </c>
     </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="2">
+        <v>44789</v>
+      </c>
+      <c r="C2522">
+        <v>20221.0794846985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2522"/>
+  <dimension ref="A1:C2523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28126,6 +28126,17 @@
         <v>20221.0794846985</v>
       </c>
     </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="2">
+        <v>44790</v>
+      </c>
+      <c r="C2523">
+        <v>19915.32703874379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2523"/>
+  <dimension ref="A1:C2524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28137,6 +28137,17 @@
         <v>19915.32703874379</v>
       </c>
     </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="1">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="2">
+        <v>44791</v>
+      </c>
+      <c r="C2524">
+        <v>19854.47541875753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2524"/>
+  <dimension ref="A1:C2525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28148,6 +28148,17 @@
         <v>19854.47541875753</v>
       </c>
     </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="1">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="2">
+        <v>44792</v>
+      </c>
+      <c r="C2525">
+        <v>19668.61574771367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2525"/>
+  <dimension ref="A1:C2526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28159,6 +28159,17 @@
         <v>19668.61574771367</v>
       </c>
     </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="2">
+        <v>44795</v>
+      </c>
+      <c r="C2526">
+        <v>19407.93776536547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2526"/>
+  <dimension ref="A1:C2527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28170,6 +28170,17 @@
         <v>19407.93776536547</v>
       </c>
     </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="2">
+        <v>44796</v>
+      </c>
+      <c r="C2527">
+        <v>19594.33331279486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2527"/>
+  <dimension ref="A1:C2528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28181,6 +28181,17 @@
         <v>19594.33331279486</v>
       </c>
     </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="1">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="2">
+        <v>44797</v>
+      </c>
+      <c r="C2528">
+        <v>19573.0650405599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2528"/>
+  <dimension ref="A1:C2529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28192,6 +28192,17 @@
         <v>19573.0650405599</v>
       </c>
     </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="1">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C2529">
+        <v>19571.68927302238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2529"/>
+  <dimension ref="A1:C2531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28203,6 +28203,28 @@
         <v>19571.68927302238</v>
       </c>
     </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="2">
+        <v>44799</v>
+      </c>
+      <c r="C2530">
+        <v>19441.91642747403</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="1">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="2">
+        <v>44802</v>
+      </c>
+      <c r="C2531">
+        <v>19163.56919240425</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2531"/>
+  <dimension ref="A1:C2532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28225,6 +28225,17 @@
         <v>19163.56919240425</v>
       </c>
     </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="1">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="2">
+        <v>44804</v>
+      </c>
+      <c r="C2532">
+        <v>18853.0467807869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2511"/>
+  <dimension ref="A1:C2512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28005,6 +28005,17 @@
         <v>18445.5289157363</v>
       </c>
     </row>
+    <row r="2512" spans="1:3">
+      <c r="A2512" s="1">
+        <v>2510</v>
+      </c>
+      <c r="B2512" s="2">
+        <v>44806</v>
+      </c>
+      <c r="C2512">
+        <v>18758.26756374664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2512"/>
+  <dimension ref="A1:C2513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28016,6 +28016,17 @@
         <v>18758.26756374664</v>
       </c>
     </row>
+    <row r="2513" spans="1:3">
+      <c r="A2513" s="1">
+        <v>2511</v>
+      </c>
+      <c r="B2513" s="2">
+        <v>44809</v>
+      </c>
+      <c r="C2513">
+        <v>18903.16196625636</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2513"/>
+  <dimension ref="A1:C2514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28027,6 +28027,17 @@
         <v>18903.16196625636</v>
       </c>
     </row>
+    <row r="2514" spans="1:3">
+      <c r="A2514" s="1">
+        <v>2512</v>
+      </c>
+      <c r="B2514" s="2">
+        <v>44810</v>
+      </c>
+      <c r="C2514">
+        <v>18848.21879053387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2514"/>
+  <dimension ref="A1:C2515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28038,6 +28038,17 @@
         <v>18848.21879053387</v>
       </c>
     </row>
+    <row r="2515" spans="1:3">
+      <c r="A2515" s="1">
+        <v>2513</v>
+      </c>
+      <c r="B2515" s="2">
+        <v>44811</v>
+      </c>
+      <c r="C2515">
+        <v>19003.91043363447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2515"/>
+  <dimension ref="A1:C2516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28049,6 +28049,17 @@
         <v>19003.91043363447</v>
       </c>
     </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="2">
+        <v>44812</v>
+      </c>
+      <c r="C2516">
+        <v>19176.6389312833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2516"/>
+  <dimension ref="A1:C2517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28060,6 +28060,17 @@
         <v>19176.6389312833</v>
       </c>
     </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="2">
+        <v>44813</v>
+      </c>
+      <c r="C2517">
+        <v>19546.25657918878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2517"/>
+  <dimension ref="A1:C2518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28071,6 +28071,17 @@
         <v>19546.25657918878</v>
       </c>
     </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="1">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="2">
+        <v>44816</v>
+      </c>
+      <c r="C2518">
+        <v>19558.31882113415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28082,6 +28082,17 @@
         <v>19558.31882113415</v>
       </c>
     </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="1">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="2">
+        <v>44817</v>
+      </c>
+      <c r="C2519">
+        <v>19312.34561713902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2519"/>
+  <dimension ref="A1:C2520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28093,6 +28093,17 @@
         <v>19312.34561713902</v>
       </c>
     </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="1">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="2">
+        <v>44818</v>
+      </c>
+      <c r="C2520">
+        <v>19266.74623323639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2520"/>
+  <dimension ref="A1:C2521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28104,6 +28104,17 @@
         <v>19266.74623323639</v>
       </c>
     </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="2">
+        <v>44819</v>
+      </c>
+      <c r="C2521">
+        <v>19359.57179694399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2521"/>
+  <dimension ref="A1:C2522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28115,6 +28115,17 @@
         <v>19359.57179694399</v>
       </c>
     </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="2">
+        <v>44820</v>
+      </c>
+      <c r="C2522">
+        <v>19363.77503369132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2522"/>
+  <dimension ref="A1:C2523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28126,6 +28126,17 @@
         <v>19363.77503369132</v>
       </c>
     </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="2">
+        <v>44823</v>
+      </c>
+      <c r="C2523">
+        <v>19479.82625671804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2523"/>
+  <dimension ref="A1:C2524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28137,6 +28137,17 @@
         <v>19479.82625671804</v>
       </c>
     </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="1">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="2">
+        <v>44824</v>
+      </c>
+      <c r="C2524">
+        <v>19583.0712318361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2524"/>
+  <dimension ref="A1:C2525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28148,6 +28148,17 @@
         <v>19583.0712318361</v>
       </c>
     </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="1">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="2">
+        <v>44825</v>
+      </c>
+      <c r="C2525">
+        <v>19659.50643589612</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2525"/>
+  <dimension ref="A1:C2526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28159,6 +28159,17 @@
         <v>19659.50643589612</v>
       </c>
     </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="2">
+        <v>44826</v>
+      </c>
+      <c r="C2526">
+        <v>19474.31009653909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2526"/>
+  <dimension ref="A1:C2527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28170,6 +28170,17 @@
         <v>19474.31009653909</v>
       </c>
     </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="2">
+        <v>44827</v>
+      </c>
+      <c r="C2527">
+        <v>18920.72643464985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2527"/>
+  <dimension ref="A1:C2528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28181,6 +28181,17 @@
         <v>18920.72643464985</v>
       </c>
     </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="1">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="2">
+        <v>44830</v>
+      </c>
+      <c r="C2528">
+        <v>18685.83477352215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2528"/>
+  <dimension ref="A1:C2529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28192,6 +28192,17 @@
         <v>18685.83477352215</v>
       </c>
     </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="1">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="2">
+        <v>44831</v>
+      </c>
+      <c r="C2529">
+        <v>18791.21013632562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2529"/>
+  <dimension ref="A1:C2530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28203,6 +28203,17 @@
         <v>18791.21013632562</v>
       </c>
     </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="2">
+        <v>44832</v>
+      </c>
+      <c r="C2530">
+        <v>19318.65950771488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2530"/>
+  <dimension ref="A1:C2531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28214,6 +28214,17 @@
         <v>19318.65950771488</v>
       </c>
     </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="1">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="2">
+        <v>44833</v>
+      </c>
+      <c r="C2531">
+        <v>19370.95184465898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2531"/>
+  <dimension ref="A1:C2532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28225,6 +28225,17 @@
         <v>19370.95184465898</v>
       </c>
     </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="1">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="2">
+        <v>44834</v>
+      </c>
+      <c r="C2532">
+        <v>19448.05656968101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2514"/>
+  <dimension ref="A1:C2515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28038,6 +28038,17 @@
         <v>19866.28349387208</v>
       </c>
     </row>
+    <row r="2515" spans="1:3">
+      <c r="A2515" s="1">
+        <v>2513</v>
+      </c>
+      <c r="B2515" s="2">
+        <v>44838</v>
+      </c>
+      <c r="C2515">
+        <v>20267.49525162591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2515"/>
+  <dimension ref="A1:C2516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28049,6 +28049,17 @@
         <v>20267.49525162591</v>
       </c>
     </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="2">
+        <v>44839</v>
+      </c>
+      <c r="C2516">
+        <v>20268.01057465695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2516"/>
+  <dimension ref="A1:C2517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28060,6 +28060,17 @@
         <v>20268.01057465695</v>
       </c>
     </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="2">
+        <v>44840</v>
+      </c>
+      <c r="C2517">
+        <v>20378.81085071469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2517"/>
+  <dimension ref="A1:C2518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28071,6 +28071,17 @@
         <v>20378.81085071469</v>
       </c>
     </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="1">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="2">
+        <v>44841</v>
+      </c>
+      <c r="C2518">
+        <v>20110.63286972817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28082,6 +28082,17 @@
         <v>20110.63286972817</v>
       </c>
     </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="1">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="2">
+        <v>44844</v>
+      </c>
+      <c r="C2519">
+        <v>19930.79982029381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2519"/>
+  <dimension ref="A1:C2520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28093,6 +28093,17 @@
         <v>19930.79982029381</v>
       </c>
     </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="1">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="2">
+        <v>44845</v>
+      </c>
+      <c r="C2520">
+        <v>19829.8789852739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2520"/>
+  <dimension ref="A1:C2521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28104,6 +28104,17 @@
         <v>19829.8789852739</v>
       </c>
     </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="2">
+        <v>44846</v>
+      </c>
+      <c r="C2521">
+        <v>19866.94960601628</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2521"/>
+  <dimension ref="A1:C2522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28115,6 +28115,17 @@
         <v>19866.94960601628</v>
       </c>
     </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="2">
+        <v>44847</v>
+      </c>
+      <c r="C2522">
+        <v>19966.10908264608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2522"/>
+  <dimension ref="A1:C2523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28126,6 +28126,17 @@
         <v>19966.10908264608</v>
       </c>
     </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="2">
+        <v>44848</v>
+      </c>
+      <c r="C2523">
+        <v>19739.5819828822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2523"/>
+  <dimension ref="A1:C2524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28137,6 +28137,17 @@
         <v>19739.5819828822</v>
       </c>
     </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="1">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="2">
+        <v>44851</v>
+      </c>
+      <c r="C2524">
+        <v>20077.32265058584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2524"/>
+  <dimension ref="A1:C2525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28148,6 +28148,17 @@
         <v>20077.32265058584</v>
       </c>
     </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="1">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="2">
+        <v>44852</v>
+      </c>
+      <c r="C2525">
+        <v>20203.26284217228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2525"/>
+  <dimension ref="A1:C2526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28159,6 +28159,17 @@
         <v>20203.26284217228</v>
       </c>
     </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="2">
+        <v>44853</v>
+      </c>
+      <c r="C2526">
+        <v>20115.56938794013</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2526"/>
+  <dimension ref="A1:C2527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28170,6 +28170,17 @@
         <v>20115.56938794013</v>
       </c>
     </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="2">
+        <v>44854</v>
+      </c>
+      <c r="C2527">
+        <v>20163.95535350891</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2527"/>
+  <dimension ref="A1:C2528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28181,6 +28181,17 @@
         <v>20163.95535350891</v>
       </c>
     </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="1">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="2">
+        <v>44855</v>
+      </c>
+      <c r="C2528">
+        <v>20480.39169582824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2528"/>
+  <dimension ref="A1:C2529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28192,6 +28192,17 @@
         <v>20480.39169582824</v>
       </c>
     </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="1">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="2">
+        <v>44858</v>
+      </c>
+      <c r="C2529">
+        <v>20223.19711286121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2529"/>
+  <dimension ref="A1:C2530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28203,6 +28203,17 @@
         <v>20223.19711286121</v>
       </c>
     </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="2">
+        <v>44859</v>
+      </c>
+      <c r="C2530">
+        <v>20735.49051435719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2530"/>
+  <dimension ref="A1:C2531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28214,6 +28214,17 @@
         <v>20735.49051435719</v>
       </c>
     </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="1">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="2">
+        <v>44860</v>
+      </c>
+      <c r="C2531">
+        <v>21002.12703044094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2531"/>
+  <dimension ref="A1:C2532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28225,6 +28225,17 @@
         <v>21002.12703044094</v>
       </c>
     </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="1">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C2532">
+        <v>21047.62508256438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2532"/>
+  <dimension ref="A1:C2533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28236,6 +28236,17 @@
         <v>21047.62508256438</v>
       </c>
     </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="1">
+        <v>2531</v>
+      </c>
+      <c r="B2533" s="2">
+        <v>44862</v>
+      </c>
+      <c r="C2533">
+        <v>20967.74256454314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2533"/>
+  <dimension ref="A1:C2534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28247,6 +28247,17 @@
         <v>20967.74256454314</v>
       </c>
     </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" s="1">
+        <v>2532</v>
+      </c>
+      <c r="B2534" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C2534">
+        <v>21095.20614185006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2515"/>
+  <dimension ref="A1:C2516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28049,6 +28049,17 @@
         <v>20866.42421032204</v>
       </c>
     </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="2">
+        <v>44868</v>
+      </c>
+      <c r="C2516">
+        <v>21003.27948306517</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2516"/>
+  <dimension ref="A1:C2517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28060,6 +28060,17 @@
         <v>21003.27948306517</v>
       </c>
     </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="2">
+        <v>44869</v>
+      </c>
+      <c r="C2517">
+        <v>21893.13945220406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2517"/>
+  <dimension ref="A1:C2518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28071,6 +28071,17 @@
         <v>21893.13945220406</v>
       </c>
     </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="1">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="2">
+        <v>44872</v>
+      </c>
+      <c r="C2518">
+        <v>22029.11172711671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28082,6 +28082,17 @@
         <v>22029.11172711671</v>
       </c>
     </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="1">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C2519">
+        <v>21960.91309068812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2519"/>
+  <dimension ref="A1:C2520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28093,6 +28093,17 @@
         <v>21960.91309068812</v>
       </c>
     </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="1">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="2">
+        <v>44874</v>
+      </c>
+      <c r="C2520">
+        <v>21812.58597960343</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2520"/>
+  <dimension ref="A1:C2521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28104,6 +28104,17 @@
         <v>21812.58597960343</v>
       </c>
     </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C2521">
+        <v>22062.23040835793</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2521"/>
+  <dimension ref="A1:C2522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28115,6 +28115,17 @@
         <v>22062.23040835793</v>
       </c>
     </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="2">
+        <v>44876</v>
+      </c>
+      <c r="C2522">
+        <v>22298.47250153512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2522"/>
+  <dimension ref="A1:C2523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28126,6 +28126,17 @@
         <v>22298.47250153512</v>
       </c>
     </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C2523">
+        <v>22381.6846783084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2523"/>
+  <dimension ref="A1:C2524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28137,6 +28137,17 @@
         <v>22381.6846783084</v>
       </c>
     </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="1">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C2524">
+        <v>22303.02387436054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2524"/>
+  <dimension ref="A1:C2525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28148,6 +28148,17 @@
         <v>22303.02387436054</v>
       </c>
     </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="1">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="2">
+        <v>44881</v>
+      </c>
+      <c r="C2525">
+        <v>22140.24544731524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2525"/>
+  <dimension ref="A1:C2526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28159,6 +28159,17 @@
         <v>22140.24544731524</v>
       </c>
     </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="2">
+        <v>44882</v>
+      </c>
+      <c r="C2526">
+        <v>21860.61827382408</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2526"/>
+  <dimension ref="A1:C2527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28170,6 +28170,17 @@
         <v>21860.61827382408</v>
       </c>
     </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="2">
+        <v>44883</v>
+      </c>
+      <c r="C2527">
+        <v>21896.95956407785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2527"/>
+  <dimension ref="A1:C2528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28181,6 +28181,17 @@
         <v>21896.95956407785</v>
       </c>
     </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="1">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="2">
+        <v>44886</v>
+      </c>
+      <c r="C2528">
+        <v>21888.04542598767</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2528"/>
+  <dimension ref="A1:C2529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28192,6 +28192,17 @@
         <v>21888.04542598767</v>
       </c>
     </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="1">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="2">
+        <v>44887</v>
+      </c>
+      <c r="C2529">
+        <v>22302.48022779377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2529"/>
+  <dimension ref="A1:C2530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28203,6 +28203,17 @@
         <v>22302.48022779377</v>
       </c>
     </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="2">
+        <v>44888</v>
+      </c>
+      <c r="C2530">
+        <v>22487.1017912585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2530"/>
+  <dimension ref="A1:C2531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28214,6 +28214,17 @@
         <v>22487.1017912585</v>
       </c>
     </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="1">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="2">
+        <v>44889</v>
+      </c>
+      <c r="C2531">
+        <v>22512.97453460981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2531"/>
+  <dimension ref="A1:C2532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28225,6 +28225,17 @@
         <v>22512.97453460981</v>
       </c>
     </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="1">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="2">
+        <v>44890</v>
+      </c>
+      <c r="C2532">
+        <v>22487.41287895786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2532"/>
+  <dimension ref="A1:C2533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28236,6 +28236,17 @@
         <v>22487.41287895786</v>
       </c>
     </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="1">
+        <v>2531</v>
+      </c>
+      <c r="B2533" s="2">
+        <v>44893</v>
+      </c>
+      <c r="C2533">
+        <v>22013.03344412822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2533"/>
+  <dimension ref="A1:C2534"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28247,6 +28247,17 @@
         <v>22013.03344412822</v>
       </c>
     </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" s="1">
+        <v>2532</v>
+      </c>
+      <c r="B2534" s="2">
+        <v>44894</v>
+      </c>
+      <c r="C2534">
+        <v>22168.49616936547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2534"/>
+  <dimension ref="A1:C2535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28258,6 +28258,17 @@
         <v>22168.49616936547</v>
       </c>
     </row>
+    <row r="2535" spans="1:3">
+      <c r="A2535" s="1">
+        <v>2533</v>
+      </c>
+      <c r="B2535" s="2">
+        <v>44895</v>
+      </c>
+      <c r="C2535">
+        <v>22455.12586233272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2515"/>
+  <dimension ref="A1:C2516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28049,6 +28049,17 @@
         <v>22470.78414670828</v>
       </c>
     </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="2">
+        <v>44897</v>
+      </c>
+      <c r="C2516">
+        <v>22419.39899516908</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2516"/>
+  <dimension ref="A1:C2517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28060,6 +28060,17 @@
         <v>22419.39899516908</v>
       </c>
     </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="2">
+        <v>44900</v>
+      </c>
+      <c r="C2517">
+        <v>22138.80645035693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2517"/>
+  <dimension ref="A1:C2518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28071,6 +28071,17 @@
         <v>22138.80645035693</v>
       </c>
     </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" s="1">
+        <v>2516</v>
+      </c>
+      <c r="B2518" s="2">
+        <v>44901</v>
+      </c>
+      <c r="C2518">
+        <v>22050.75508942824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2518"/>
+  <dimension ref="A1:C2519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28082,6 +28082,17 @@
         <v>22050.75508942824</v>
       </c>
     </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" s="1">
+        <v>2517</v>
+      </c>
+      <c r="B2519" s="2">
+        <v>44902</v>
+      </c>
+      <c r="C2519">
+        <v>22158.7223051457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2519"/>
+  <dimension ref="A1:C2520"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28093,6 +28093,17 @@
         <v>22158.7223051457</v>
       </c>
     </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" s="1">
+        <v>2518</v>
+      </c>
+      <c r="B2520" s="2">
+        <v>44907</v>
+      </c>
+      <c r="C2520">
+        <v>21641.83399816062</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2520"/>
+  <dimension ref="A1:C2521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28104,6 +28104,17 @@
         <v>21641.83399816062</v>
       </c>
     </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" s="1">
+        <v>2519</v>
+      </c>
+      <c r="B2521" s="2">
+        <v>44908</v>
+      </c>
+      <c r="C2521">
+        <v>21516.4386867821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2521"/>
+  <dimension ref="A1:C2522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28115,6 +28115,17 @@
         <v>21516.4386867821</v>
       </c>
     </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" s="1">
+        <v>2520</v>
+      </c>
+      <c r="B2522" s="2">
+        <v>44909</v>
+      </c>
+      <c r="C2522">
+        <v>21394.09867772868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2522"/>
+  <dimension ref="A1:C2523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28126,6 +28126,17 @@
         <v>21394.09867772868</v>
       </c>
     </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" s="1">
+        <v>2521</v>
+      </c>
+      <c r="B2523" s="2">
+        <v>44910</v>
+      </c>
+      <c r="C2523">
+        <v>21112.53277986161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2523"/>
+  <dimension ref="A1:C2525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28137,6 +28137,28 @@
         <v>21112.53277986161</v>
       </c>
     </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" s="1">
+        <v>2522</v>
+      </c>
+      <c r="B2524" s="2">
+        <v>44911</v>
+      </c>
+      <c r="C2524">
+        <v>20989.44908608413</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" s="1">
+        <v>2523</v>
+      </c>
+      <c r="B2525" s="2">
+        <v>44914</v>
+      </c>
+      <c r="C2525">
+        <v>20991.75408902709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2525"/>
+  <dimension ref="A1:C2526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28159,6 +28159,17 @@
         <v>20991.75408902709</v>
       </c>
     </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" s="1">
+        <v>2524</v>
+      </c>
+      <c r="B2526" s="2">
+        <v>44915</v>
+      </c>
+      <c r="C2526">
+        <v>21206.62825142326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2526"/>
+  <dimension ref="A1:C2527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28170,6 +28170,17 @@
         <v>21206.62825142326</v>
       </c>
     </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" s="1">
+        <v>2525</v>
+      </c>
+      <c r="B2527" s="2">
+        <v>44916</v>
+      </c>
+      <c r="C2527">
+        <v>21149.66221250943</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2527"/>
+  <dimension ref="A1:C2528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28181,6 +28181,17 @@
         <v>21149.66221250943</v>
       </c>
     </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" s="1">
+        <v>2526</v>
+      </c>
+      <c r="B2528" s="2">
+        <v>44917</v>
+      </c>
+      <c r="C2528">
+        <v>20986.59083688596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2528"/>
+  <dimension ref="A1:C2532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28192,6 +28192,50 @@
         <v>20986.59083688596</v>
       </c>
     </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" s="1">
+        <v>2527</v>
+      </c>
+      <c r="B2529" s="2">
+        <v>44918</v>
+      </c>
+      <c r="C2529">
+        <v>21151.37947921297</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" s="1">
+        <v>2528</v>
+      </c>
+      <c r="B2530" s="2">
+        <v>44921</v>
+      </c>
+      <c r="C2530">
+        <v>21168.77598376973</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" s="1">
+        <v>2529</v>
+      </c>
+      <c r="B2531" s="2">
+        <v>44922</v>
+      </c>
+      <c r="C2531">
+        <v>21347.22941748059</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" s="1">
+        <v>2530</v>
+      </c>
+      <c r="B2532" s="2">
+        <v>44923</v>
+      </c>
+      <c r="C2532">
+        <v>21302.54650155542</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2532"/>
+  <dimension ref="A1:C2533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28236,6 +28236,17 @@
         <v>21302.54650155542</v>
       </c>
     </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" s="1">
+        <v>2531</v>
+      </c>
+      <c r="B2533" s="2">
+        <v>44924</v>
+      </c>
+      <c r="C2533">
+        <v>21333.81640900695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2515"/>
+  <dimension ref="A1:C2516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28049,6 +28049,17 @@
         <v>21377.55454459723</v>
       </c>
     </row>
+    <row r="2516" spans="1:3">
+      <c r="A2516" s="1">
+        <v>2514</v>
+      </c>
+      <c r="B2516" s="2">
+        <v>44929</v>
+      </c>
+      <c r="C2516">
+        <v>21484.89681565488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/bvl_gen.xlsx
+++ b/mercados/bvl_gen.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2516"/>
+  <dimension ref="A1:C2517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28060,6 +28060,17 @@
         <v>21484.89681565488</v>
       </c>
     </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" s="1">
+        <v>2515</v>
+      </c>
+      <c r="B2517" s="2">
+        <v>44930</v>
+      </c>
+      <c r="C2517">
+        <v>21768.93644265095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
